--- a/biology/Botanique/Flore_de_la_Colombie/Flore_de_la_Colombie.xlsx
+++ b/biology/Botanique/Flore_de_la_Colombie/Flore_de_la_Colombie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore de la Colombie se caractérise par une biodiversité importante, avec le taux le plus élevé d'espèces par unité de surface à travers le monde. Plus de 130 000 espèces ont été signalées sur le territoire colombien. 
-Selon une étude de WWF, la détérioration des écosystèmes menace l'existence de plus d'un tiers des plantes de Colombie[1]. D’après les données de l'institut gouvernemental Ideam, la forêt colombienne recule d’année en année : « En 1990, elle représentait 56,4 % de la surface du pays ; aujourd’hui, les forêts ne recouvrent plus que 51,6 % de la Colombie[2]. »
+Selon une étude de WWF, la détérioration des écosystèmes menace l'existence de plus d'un tiers des plantes de Colombie. D’après les données de l'institut gouvernemental Ideam, la forêt colombienne recule d’année en année : « En 1990, elle représentait 56,4 % de la surface du pays ; aujourd’hui, les forêts ne recouvrent plus que 51,6 % de la Colombie. »
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Emblèmes nationaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur nationale de la Colombie est une orchidée, la Cattleya trianae, qui a été baptisée à partir du nom du naturaliste colombien José Jerónimo Triana. L'orchidée a été choisie comme symbole national par le botaniste Emilio Robledo qui la considère comme l'une des plus belles fleurs au monde.
 L'arbre national de la Colombie est le palmier Ceroxylon quindiuense. Appelé également en espagnol Palma de cera del quindio, il a été baptisé du nom du département colombien de Quindío où est localisée la vallée de Cocora, seul habitat où pousse cette espèce. Premier arbre considéré officiellement comme espèce protégée en Colombie, il a été choisi comme arbre national par le gouvernement de Belisario Betancur.
@@ -544,7 +558,9 @@
           <t>Flore endémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Colombie a le plus grand nombre d'espèces endémiques au monde. Environ 10 % des espèces dans le monde poussent en Colombie. Cela peut s'expliquer par les conditions atmosphériques, de température, d'humidité et de lumière du soleil.
 Les espèces endémiques peuvent facilement être mise en danger ou disparaître à cause de leur habitat restreint, de leur vulnérabilité aux actions de l'homme ou encore de l'introduction de nouveaux organismes.
@@ -580,7 +596,9 @@
           <t>Espèces d'arbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anadenanthera peregrina
 Adenolisianthus arboreus
@@ -656,7 +674,9 @@
           <t>Fruits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Parépou (Bactris gasipaes).
@@ -699,7 +719,9 @@
           <t>Genres de plantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abarema
 Abarema callejasii
@@ -950,9 +972,11 @@
           <t>Espèces d'orchidées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>La Colombie a le plus grand nombre d'espèces d'orchidées dans le monde. Parmi elles, peuvent être citées :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie a le plus grand nombre d'espèces d'orchidées dans le monde. Parmi elles, peuvent être citées :
 			Restrepia antennifera
 			Restrepia aristulifera
 			Restrepia aspasicensium
@@ -1116,10 +1140,79 @@
 			Brassavola nodosa
 			Scaphosepalum swertifolium
 			Aganisia cyanea
-Frondaria
-Frondaria caulescens
-Restrepia
-Restrepia antennifera
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flore_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces d'orchidées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Frondaria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Frondaria caulescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flore_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces d'orchidées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Restrepia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Restrepia antennifera
 Restrepia chocoensis
 Restrepia citrina
 Restrepia muscifera</t>
